--- a/output/memory_based_predict/movie/evaluation.xlsx
+++ b/output/memory_based_predict/movie/evaluation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2F27C6E8-5711-4F0D-BD82-3D129E832913}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3EF4CE29-7B47-4F0A-894C-9F202B30C61A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Pearson Correlation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>Combined</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +83,19 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,12 +119,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,12 +430,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -435,7 +450,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -452,8 +467,8 @@
       <c r="C4" s="1">
         <v>1.1810290000000001</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="4">
+        <v>0.96050080000000004</v>
       </c>
       <c r="E4" s="1">
         <v>1.443416</v>
@@ -467,7 +482,7 @@
       <c r="C5" s="1">
         <v>1.1540010000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>1.13852</v>
       </c>
       <c r="E5" s="1">
@@ -476,7 +491,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -491,12 +506,12 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -514,7 +529,7 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -552,7 +567,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1">
